--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3470.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3470.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3470</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ishant Sharma</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>29/06/2007</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2701</t>
+          <t>2701</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2782</t>
+          <t>2782</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -592,7 +656,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>04/02/2008</t>
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2784</t>
+          <t>2784</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -640,7 +703,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>10/02/2008</t>
@@ -648,7 +710,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2787</t>
+          <t>2787</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -688,7 +750,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>12/02/2008</t>
@@ -696,7 +757,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2788</t>
+          <t>2788</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -748,7 +809,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2792</t>
+          <t>2792</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -800,7 +861,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2793</t>
+          <t>2793</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -852,7 +913,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2797</t>
+          <t>2797</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -892,7 +953,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>26/02/2008</t>
@@ -900,7 +960,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2798</t>
+          <t>2798</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -940,7 +1000,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>02/03/2008</t>
@@ -948,7 +1007,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2800</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -988,7 +1047,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>10/06/2008</t>
@@ -996,7 +1054,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2817</t>
+          <t>2817</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1048,7 +1106,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2819</t>
+          <t>2819</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1088,7 +1146,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>26/06/2008</t>
@@ -1096,7 +1153,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2829</t>
+          <t>2829</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1136,7 +1193,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>28/06/2008</t>
@@ -1144,7 +1200,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2833</t>
+          <t>2833</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1184,7 +1240,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>02/07/2008</t>
@@ -1192,7 +1247,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2842</t>
+          <t>2842</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1232,7 +1287,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>03/07/2008</t>
@@ -1240,7 +1294,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2844</t>
+          <t>2844</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1292,7 +1346,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2847</t>
+          <t>2847</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1332,7 +1386,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>20/11/2008</t>
@@ -1340,7 +1393,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2900</t>
+          <t>2900</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1380,7 +1433,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>23/11/2008</t>
@@ -1388,7 +1440,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2903</t>
+          <t>2903</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1428,7 +1480,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>26/11/2008</t>
@@ -1436,7 +1487,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2905</t>
+          <t>2905</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1476,7 +1527,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>28/01/2009</t>
@@ -1484,7 +1534,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2928</t>
+          <t>2928</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1524,7 +1574,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>31/01/2009</t>
@@ -1532,7 +1581,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2932</t>
+          <t>2932</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1572,7 +1621,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>03/02/2009</t>
@@ -1580,7 +1628,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2935</t>
+          <t>2935</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1620,7 +1668,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>05/02/2009</t>
@@ -1628,7 +1675,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2937</t>
+          <t>2937</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1680,7 +1727,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2940</t>
+          <t>2940</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1720,7 +1767,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>11/03/2009</t>
@@ -1728,7 +1774,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2946</t>
+          <t>2946</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1780,7 +1826,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2947</t>
+          <t>2947</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1820,7 +1866,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>26/06/2009</t>
@@ -1828,7 +1873,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2975</t>
+          <t>2975</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1868,7 +1913,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>03/07/2009</t>
@@ -1876,7 +1920,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2977</t>
+          <t>2977</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1916,7 +1960,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>05/07/2009</t>
@@ -1924,7 +1967,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2978</t>
+          <t>2978</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1964,7 +2007,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>11/09/2009</t>
@@ -1972,7 +2014,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3013</t>
+          <t>3013</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2024,7 +2066,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3014</t>
+          <t>3014</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2064,7 +2106,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>14/09/2009</t>
@@ -2072,7 +2113,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3016</t>
+          <t>3016</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2124,7 +2165,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3025</t>
+          <t>3025</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2164,7 +2205,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>28/09/2009</t>
@@ -2172,7 +2212,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3028</t>
+          <t>3028</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2212,7 +2252,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>25/10/2009</t>
@@ -2220,7 +2259,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3040</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2260,7 +2299,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>28/10/2009</t>
@@ -2268,7 +2306,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3042</t>
+          <t>3042</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2308,7 +2346,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>31/10/2009</t>
@@ -2316,7 +2353,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3045</t>
+          <t>3045</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2368,7 +2405,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3046</t>
+          <t>3046</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2408,7 +2445,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>21/12/2009</t>
@@ -2416,7 +2452,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3064</t>
+          <t>3064</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2456,7 +2492,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>24/12/2009</t>
@@ -2464,7 +2499,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3065</t>
+          <t>3065</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2504,7 +2539,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>16/08/2010</t>
@@ -2512,7 +2546,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3163</t>
+          <t>3163</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2564,7 +2598,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3169</t>
+          <t>3169</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2616,7 +2650,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3170</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2668,7 +2702,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3171</t>
+          <t>3171</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2720,7 +2754,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3297</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2772,7 +2806,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3298</t>
+          <t>3298</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2812,7 +2846,6 @@
           <t>48</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>30/12/2012</t>
@@ -2820,7 +2853,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3455</t>
+          <t>3455</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2872,7 +2905,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3456</t>
+          <t>3456</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2924,7 +2957,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3457</t>
+          <t>3457</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2976,7 +3009,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3459</t>
+          <t>3459</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3016,7 +3049,6 @@
           <t>52</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>15/01/2013</t>
@@ -3024,7 +3056,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3461</t>
+          <t>3461</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3064,7 +3096,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>19/01/2013</t>
@@ -3072,7 +3103,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3463</t>
+          <t>3463</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3112,7 +3143,6 @@
           <t>54</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>23/01/2013</t>
@@ -3120,7 +3150,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3468</t>
+          <t>3468</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3172,7 +3202,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3470</t>
+          <t>3470</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3212,7 +3242,6 @@
           <t>56</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>06/06/2013</t>
@@ -3220,7 +3249,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3505</t>
+          <t>3505</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3260,7 +3289,6 @@
           <t>57</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>11/06/2013</t>
@@ -3268,7 +3296,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3510</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3308,7 +3336,6 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>15/06/2013</t>
@@ -3316,7 +3343,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3514</t>
+          <t>3514</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3356,7 +3383,6 @@
           <t>59</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>20/06/2013</t>
@@ -3364,7 +3390,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3518</t>
+          <t>3518</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3404,7 +3430,6 @@
           <t>60</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>23/06/2013</t>
@@ -3412,7 +3437,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3519</t>
+          <t>3519</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3452,7 +3477,6 @@
           <t>61</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>30/06/2013</t>
@@ -3460,7 +3484,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3521</t>
+          <t>3521</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3512,7 +3536,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3524</t>
+          <t>3524</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3552,7 +3576,6 @@
           <t>63</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>05/07/2013</t>
@@ -3560,7 +3583,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3525</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3600,7 +3623,6 @@
           <t>64</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>09/07/2013</t>
@@ -3608,7 +3630,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3529</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3660,7 +3682,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3530</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3712,7 +3734,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3562</t>
+          <t>3562</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3752,7 +3774,6 @@
           <t>67</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>16/10/2013</t>
@@ -3760,7 +3781,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3563</t>
+          <t>3563</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3812,7 +3833,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3564</t>
+          <t>3564</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3864,7 +3885,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3587</t>
+          <t>3587</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3904,7 +3925,6 @@
           <t>70</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>11/12/2013</t>
@@ -3912,7 +3932,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3588</t>
+          <t>3588</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3964,7 +3984,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3601</t>
+          <t>3601</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4016,7 +4036,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3603</t>
+          <t>3603</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4056,7 +4076,6 @@
           <t>73</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>02/11/2014</t>
@@ -4064,7 +4083,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3688</t>
+          <t>3688</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4104,7 +4123,6 @@
           <t>74</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>06/11/2014</t>
@@ -4112,7 +4130,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3689</t>
+          <t>3689</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4152,7 +4170,6 @@
           <t>75</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>09/11/2014</t>
@@ -4160,7 +4177,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3692</t>
+          <t>3692</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4200,7 +4217,6 @@
           <t>76</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>26/01/2015</t>
@@ -4208,7 +4224,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3741</t>
+          <t>3741</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4248,7 +4264,6 @@
           <t>77</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>15/01/2016</t>
@@ -4256,7 +4271,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3875</t>
+          <t>3875</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4296,7 +4311,6 @@
           <t>78</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>17/01/2016</t>
@@ -4304,7 +4318,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3876</t>
+          <t>3876</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4356,7 +4370,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3877</t>
+          <t>3877</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4396,7 +4410,6 @@
           <t>80</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>23/01/2016</t>
@@ -4404,7 +4417,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3878</t>
+          <t>3878</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4443,7 +4456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4465,7 +4478,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4502,7 +4515,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2701</t>
+          <t>2701</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4539,7 +4552,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2782</t>
+          <t>2782</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4576,7 +4589,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2787</t>
+          <t>2787</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4613,7 +4626,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2788</t>
+          <t>2788</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4650,7 +4663,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2792</t>
+          <t>2792</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4687,7 +4700,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2793</t>
+          <t>2793</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4724,7 +4737,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2797</t>
+          <t>2797</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4761,7 +4774,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2798</t>
+          <t>2798</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4798,7 +4811,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2800</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4835,7 +4848,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2817</t>
+          <t>2817</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4872,7 +4885,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2819</t>
+          <t>2819</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4909,7 +4922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2829</t>
+          <t>2829</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4946,7 +4959,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2833</t>
+          <t>2833</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4983,7 +4996,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2842</t>
+          <t>2842</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -5020,7 +5033,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2844</t>
+          <t>2844</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5057,7 +5070,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2847</t>
+          <t>2847</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5094,7 +5107,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2900</t>
+          <t>2900</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5131,7 +5144,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2903</t>
+          <t>2903</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5168,7 +5181,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2905</t>
+          <t>2905</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -5205,7 +5218,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2928</t>
+          <t>2928</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -5242,7 +5255,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2932</t>
+          <t>2932</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5279,7 +5292,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2935</t>
+          <t>2935</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5316,7 +5329,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2937</t>
+          <t>2937</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5353,7 +5366,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2940</t>
+          <t>2940</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5390,7 +5403,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2946</t>
+          <t>2946</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5427,7 +5440,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2947</t>
+          <t>2947</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5464,7 +5477,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2975</t>
+          <t>2975</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5501,7 +5514,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2977</t>
+          <t>2977</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5538,7 +5551,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2978</t>
+          <t>2978</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -5575,7 +5588,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3013</t>
+          <t>3013</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5612,7 +5625,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3014</t>
+          <t>3014</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5649,7 +5662,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3016</t>
+          <t>3016</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -5686,7 +5699,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3025</t>
+          <t>3025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5723,7 +5736,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3028</t>
+          <t>3028</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -5760,7 +5773,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3040</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5797,7 +5810,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3042</t>
+          <t>3042</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5834,7 +5847,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3045</t>
+          <t>3045</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5871,7 +5884,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3046</t>
+          <t>3046</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5908,7 +5921,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3064</t>
+          <t>3064</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5945,7 +5958,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3065</t>
+          <t>3065</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5982,7 +5995,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3163</t>
+          <t>3163</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -6019,7 +6032,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3169</t>
+          <t>3169</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -6056,7 +6069,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3170</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -6093,7 +6106,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3171</t>
+          <t>3171</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6130,7 +6143,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3297</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6167,7 +6180,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3298</t>
+          <t>3298</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6204,7 +6217,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3455</t>
+          <t>3455</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6241,7 +6254,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3456</t>
+          <t>3456</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6278,7 +6291,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3457</t>
+          <t>3457</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6315,7 +6328,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3459</t>
+          <t>3459</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6352,7 +6365,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3461</t>
+          <t>3461</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6389,7 +6402,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3463</t>
+          <t>3463</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6426,7 +6439,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3468</t>
+          <t>3468</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6463,7 +6476,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3470</t>
+          <t>3470</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6500,7 +6513,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3505</t>
+          <t>3505</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6537,7 +6550,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3510</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6574,7 +6587,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3514</t>
+          <t>3514</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6611,7 +6624,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3518</t>
+          <t>3518</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6648,7 +6661,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3519</t>
+          <t>3519</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6685,7 +6698,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3521</t>
+          <t>3521</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6722,7 +6735,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3524</t>
+          <t>3524</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6759,7 +6772,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3525</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6796,7 +6809,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3529</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -6833,7 +6846,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3530</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -6870,7 +6883,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3562</t>
+          <t>3562</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6907,7 +6920,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3563</t>
+          <t>3563</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -6944,7 +6957,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3564</t>
+          <t>3564</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -6981,7 +6994,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3587</t>
+          <t>3587</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -7018,7 +7031,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3588</t>
+          <t>3588</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -7055,7 +7068,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3601</t>
+          <t>3601</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -7092,7 +7105,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3603</t>
+          <t>3603</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -7129,7 +7142,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3688</t>
+          <t>3688</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -7166,7 +7179,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3689</t>
+          <t>3689</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -7203,7 +7216,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3692</t>
+          <t>3692</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -7240,7 +7253,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3875</t>
+          <t>3875</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -7277,7 +7290,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3876</t>
+          <t>3876</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -7314,7 +7327,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3877</t>
+          <t>3877</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -7351,7 +7364,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3878</t>
+          <t>3878</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -7379,6 +7392,409 @@
           <t>2/60</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3521</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3524</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.07%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3525</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3529</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3530</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3562</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3563</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3564</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.87%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3587</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3588</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3601</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3603</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3688</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3689</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3692</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3741</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3875</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3876</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3877</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3878</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3470.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3470.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7453,9 +7454,6 @@
       <c r="B2" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7501,9 +7499,6 @@
       <c r="B4" t="n">
         <v>10</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7519,9 +7514,6 @@
       <c r="B5" t="n">
         <v>10</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7534,10 +7526,6 @@
           <t>3530</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7563,7 +7551,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7576,177 +7563,427 @@
           <t>3563</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3564</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.87%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3587</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3588</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3601</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3603</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3688</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3689</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3692</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3741</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3875</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3876</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3877</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3878</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3519</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3521</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3524</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3525</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3529</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3530</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3562</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3564</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.87%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>3563</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3587</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>11</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>3564</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3588</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>3587</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3601</t>
+          <t>3588</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3603</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>3601</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3688</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>3603</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3689</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>3688</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3692</t>
+          <t>3689</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3741</t>
+          <t>3692</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7756,9 +7993,6 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7766,11 +8000,16 @@
           <t>3876</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7780,9 +8019,6 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7792,9 +8028,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3470.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3470.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1973,7 +1972,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2218,7 +2217,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3938,7 +3937,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -7454,6 +7453,9 @@
       <c r="B2" t="n">
         <v>10</v>
       </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7499,6 +7501,9 @@
       <c r="B4" t="n">
         <v>10</v>
       </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7514,6 +7519,9 @@
       <c r="B5" t="n">
         <v>10</v>
       </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7526,6 +7534,10 @@
           <t>3530</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7551,6 +7563,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7563,6 +7576,10 @@
           <t>3563</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7608,6 +7625,9 @@
       <c r="B10" t="n">
         <v>11</v>
       </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7620,6 +7640,10 @@
           <t>3588</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7632,6 +7656,10 @@
           <t>3601</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7644,6 +7672,10 @@
           <t>3603</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7656,6 +7688,10 @@
           <t>3688</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7671,6 +7707,9 @@
       <c r="B15" t="n">
         <v>9</v>
       </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7683,6 +7722,10 @@
           <t>3692</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7695,6 +7738,10 @@
           <t>3741</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7707,6 +7754,11 @@
           <t>3875</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7714,6 +7766,11 @@
           <t>3876</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7721,6 +7778,11 @@
           <t>3877</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7728,306 +7790,11 @@
           <t>3878</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3519</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3521</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3524</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3525</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3529</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3530</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3562</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3563</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3564</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3587</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3588</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3601</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3603</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3688</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3689</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3692</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>3875</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>3876</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>3877</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>3878</t>
-        </is>
-      </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3470.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3470.xlsx
@@ -7404,7 +7404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7447,12 +7447,10 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3521</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
+          <t>2701</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -7465,11 +7463,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3524</t>
+          <t>2782</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -7483,7 +7481,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.07%</t>
+          <t>0.52%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -7495,12 +7493,10 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3525</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
+          <t>2784</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -7513,11 +7509,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>2787</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -7531,13 +7527,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3530</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+          <t>2788</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.31%</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7547,22 +7557,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3562</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>11</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>2792</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
@@ -7573,10 +7573,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3563</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>2793</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -7589,27 +7591,13 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3564</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.87%</t>
-        </is>
-      </c>
+          <t>2797</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7619,12 +7607,10 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3587</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>11</v>
-      </c>
+          <t>2798</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -7637,7 +7623,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3588</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -7653,10 +7639,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3601</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>2817</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -7669,10 +7657,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3603</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>2819</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -7685,7 +7675,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3688</t>
+          <t>2829</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -7701,11 +7691,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3689</t>
+          <t>2833</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -7719,7 +7709,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3692</t>
+          <t>2842</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -7735,7 +7725,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3741</t>
+          <t>2844</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -7751,50 +7741,1128 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3875</t>
+          <t>2847</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3876</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>2900</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>11</v>
+      </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3877</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>2903</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3878</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>2905</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>11</v>
+      </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2928</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2932</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>11</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2.01%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2935</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2937</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2940</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2946</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2947</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>11</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2975</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>10</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2977</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2978</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3013</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>11</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3014</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3016</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3025</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2.91%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3028</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3.59%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3040</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3042</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3045</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>11</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3046</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3064</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2.99%</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3065</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3163</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>10</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3169</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>10</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3170</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>10</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3171</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>11</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3297</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>10</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3298</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>9</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3455</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>9</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3456</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3457</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3459</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>10</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3461</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>10</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1.07%</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3463</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>10</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3468</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>10</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3470</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3505</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>11</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>3510</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3514</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>10</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1.87%</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>3518</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>11</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3519</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>3521</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3524</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3525</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>3529</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>9</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>3530</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>3562</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>3563</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>3564</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>3587</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>3588</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>3601</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>3603</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>3688</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>3689</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>3692</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>3741</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>3875</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>3876</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>3877</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>3878</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
